--- a/doc/reaction_table.xlsx
+++ b/doc/reaction_table.xlsx
@@ -3364,9 +3364,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{A9AEF393-04AA-5841-B838-22F3B63C300E}" name="zhang Cheng" id="-845660997" dateTime="2014-04-10T23:04:20"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
